--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\shreya\Coding\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\shreya\Coding\Python\Excel_Analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE2836C-CD4F-4923-A6F0-E9804FBE1A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0057561D-013F-4FD5-8739-1D601B865A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F8D27BA4-BD38-42B1-AC68-8C36A436C525}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>DATE</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>total margine</t>
-  </si>
-  <si>
-    <t>13-14</t>
   </si>
   <si>
     <t>1-A</t>
@@ -103,6 +100,21 @@
   <si>
     <t>Plazzo</t>
   </si>
+  <si>
+    <t>13-02-xx</t>
+  </si>
+  <si>
+    <t>14-02-xx</t>
+  </si>
+  <si>
+    <t>15-02-xx</t>
+  </si>
+  <si>
+    <t>16-02-xx</t>
+  </si>
+  <si>
+    <t>17-02-xx</t>
+  </si>
 </sst>
 </file>
 
@@ -137,12 +149,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1581,13 +1594,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C96FA6-0F39-452A-9B2E-96FD42E744E0}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A37" sqref="A35:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1616,8 +1632,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
+      <c r="A2" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1649,6 +1665,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B3">
         <v>2</v>
       </c>
@@ -1679,6 +1698,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B4">
         <v>3</v>
       </c>
@@ -1709,6 +1731,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B5">
         <v>4</v>
       </c>
@@ -1739,6 +1764,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B6">
         <v>5</v>
       </c>
@@ -1769,6 +1797,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B7">
         <v>6</v>
       </c>
@@ -1799,6 +1830,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B8">
         <v>7</v>
       </c>
@@ -1829,6 +1863,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B9">
         <v>8</v>
       </c>
@@ -1859,6 +1896,9 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B10">
         <v>9</v>
       </c>
@@ -1889,6 +1929,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B11">
         <v>10</v>
       </c>
@@ -1919,6 +1962,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B12">
         <v>11</v>
       </c>
@@ -1949,6 +1995,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B13">
         <v>12</v>
       </c>
@@ -1979,6 +2028,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B14">
         <v>13</v>
       </c>
@@ -2009,6 +2061,9 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B15">
         <v>14</v>
       </c>
@@ -2039,11 +2094,14 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <f>VLOOKUP(C16,'[1]24-4-23'!B$5:J$238,3,0)</f>
@@ -2068,12 +2126,15 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <f>VLOOKUP(C17,'[1]24-4-23'!B$5:J$238,3,0)</f>
@@ -2098,12 +2159,15 @@
         <v>460</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <f>VLOOKUP(C18,'[1]24-4-23'!B$5:J$238,3,0)</f>
@@ -2128,12 +2192,15 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <f>VLOOKUP(C19,'[1]24-4-23'!B$5:J$238,3,0)</f>
@@ -2158,12 +2225,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <f>VLOOKUP(C20,'[1]24-4-23'!B$5:J$238,3,0)</f>
@@ -2188,12 +2258,15 @@
         <v>310</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21">
         <f>VLOOKUP(C21,'[1]24-4-23'!B$5:J$238,3,0)</f>
@@ -2218,12 +2291,15 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <f>VLOOKUP(C22,'[1]24-4-23'!B$5:J$238,3,0)</f>
@@ -2248,12 +2324,15 @@
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23">
         <f>VLOOKUP(C23,'[1]24-4-23'!B$5:J$238,3,0)</f>
@@ -2278,12 +2357,15 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <f>VLOOKUP(C24,'[1]24-4-23'!B$5:J$238,3,0)</f>
@@ -2308,12 +2390,15 @@
         <v>350</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <f>VLOOKUP(C25,'[1]24-4-23'!B$5:J$238,3,0)</f>
@@ -2338,12 +2423,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B26">
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <f>VLOOKUP(C26,'[1]24-4-23'!B$5:J$238,3,0)</f>
@@ -2368,12 +2456,15 @@
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B27">
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27">
         <f>VLOOKUP(C27,'[1]24-4-23'!B$5:J$238,3,0)</f>
@@ -2398,12 +2489,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B28">
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28">
         <f>VLOOKUP(C28,'[1]24-4-23'!B$5:J$238,3,0)</f>
@@ -2428,12 +2522,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B29">
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29">
         <f>VLOOKUP(C29,'[1]24-4-23'!B$5:J$238,3,0)</f>
@@ -2458,12 +2555,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B30">
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30">
         <f>VLOOKUP(C30,'[1]24-4-23'!B$5:J$238,3,0)</f>
@@ -2488,12 +2588,15 @@
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B31">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31">
         <f>VLOOKUP(C31,'[1]24-4-23'!B$5:J$238,3,0)</f>
@@ -2518,12 +2621,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B32">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32">
         <f>VLOOKUP(C32,'[1]24-4-23'!B$5:J$238,3,0)</f>
@@ -2548,12 +2654,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B33">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33">
         <f>VLOOKUP(C33,'[1]24-4-23'!B$5:J$238,3,0)</f>
@@ -2578,12 +2687,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B34">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34">
         <f>VLOOKUP(C34,'[1]24-4-23'!B$5:J$238,3,0)</f>
@@ -2607,6 +2719,15 @@
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
